--- a/proyecto EDA/DATASETS/EXCEL/geo_lugares_origen_final.xlsx
+++ b/proyecto EDA/DATASETS/EXCEL/geo_lugares_origen_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Ciudad</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +477,11 @@
           <t>Мольча, Чыркавіцкі сельскі Савет, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -490,6 +500,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -508,6 +523,11 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -526,6 +546,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,6 +569,11 @@
           <t>Dhofar, Omán</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -562,6 +592,11 @@
           <t>Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -580,6 +615,11 @@
           <t>Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -598,6 +638,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -616,6 +661,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -634,6 +684,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -652,6 +707,11 @@
           <t>Güneyce, Arsin, Trabzon, Región del Mar Negro, Turquía</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -670,6 +730,11 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Kenia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -688,6 +753,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -706,6 +772,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -724,6 +791,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -742,6 +810,7 @@
           <t>Afder, Somali, Etiopía</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -760,6 +829,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -778,6 +848,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -796,6 +867,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -814,6 +886,7 @@
           <t>Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -832,6 +905,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -850,6 +924,7 @@
           <t>Provincia Oriental, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -868,6 +943,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -886,6 +962,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -904,6 +981,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -922,6 +1000,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -940,6 +1019,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -958,6 +1038,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -976,6 +1057,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -994,6 +1076,7 @@
           <t>Ферзиковский, Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1012,6 +1095,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1030,6 +1114,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1048,6 +1133,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1066,6 +1152,7 @@
           <t>العين, Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1084,6 +1171,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1102,6 +1190,7 @@
           <t>Provincia de Hail, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1120,6 +1209,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1138,6 +1228,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1156,6 +1247,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1174,6 +1266,7 @@
           <t>Siria</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1192,6 +1285,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1210,6 +1304,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1228,6 +1323,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1246,6 +1342,7 @@
           <t>Aşkale, Erzurum, Doğu Anadolu Bölgesi, Turquía</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1264,6 +1361,7 @@
           <t>Мірашнічэнкі, Печышчы, Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1282,6 +1380,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1300,6 +1399,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1318,6 +1418,7 @@
           <t>Chipre del Norte, Chipre</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1336,6 +1437,7 @@
           <t>محافظة شروره, Provincia de Najrán, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1354,6 +1456,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1372,6 +1475,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1390,6 +1494,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1408,6 +1513,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1426,6 +1532,7 @@
           <t>Buraimi, Omán</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1444,6 +1551,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1462,6 +1570,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1480,6 +1589,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1498,6 +1608,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1516,6 +1627,7 @@
           <t>Лясная, Чыркавіцкі сельскі Савет, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1534,6 +1646,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1552,6 +1665,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1570,6 +1684,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1588,6 +1703,7 @@
           <t>Mudug, Galmudug, Somalia</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1606,6 +1722,7 @@
           <t>Provincia de Hail, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1624,6 +1741,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1642,6 +1760,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1660,6 +1779,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1678,6 +1798,7 @@
           <t>Камінь-Каширський, Ucrania</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1696,6 +1817,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1710,6 +1832,7 @@
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1728,6 +1851,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1746,6 +1870,7 @@
           <t>Kasala, Sudán</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1764,6 +1889,7 @@
           <t>Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1778,6 +1904,7 @@
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1796,6 +1923,7 @@
           <t>Mudug, Galmudug, Somalia</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1814,6 +1942,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1832,6 +1961,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1850,6 +1980,7 @@
           <t>Великі Вільми, Садівська, Сумський, Ucrania</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1868,6 +1999,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1886,6 +2018,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1904,6 +2037,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1922,6 +2056,7 @@
           <t>Kasala, Sudán</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1940,6 +2075,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1958,6 +2094,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1976,6 +2113,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1994,6 +2132,7 @@
           <t>Siria</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2012,6 +2151,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2030,6 +2170,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2048,6 +2189,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2066,6 +2208,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2084,6 +2227,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2102,6 +2246,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2120,6 +2265,7 @@
           <t>Provincia Oriental, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2138,6 +2284,7 @@
           <t>Asosa</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2156,6 +2303,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2174,6 +2322,7 @@
           <t>Мірашнічэнкі, Печышчы, Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2192,6 +2341,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2210,6 +2360,7 @@
           <t>الظفرة, Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2228,6 +2379,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2246,6 +2398,7 @@
           <t>Chipre</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2264,6 +2417,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2282,6 +2436,7 @@
           <t>Tanzania</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2300,6 +2455,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2318,6 +2474,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2336,6 +2493,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2354,6 +2512,7 @@
           <t>Azerbaiyán Oriental, Irán</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2372,6 +2531,7 @@
           <t>العين, Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2390,6 +2550,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2408,6 +2569,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2426,6 +2588,7 @@
           <t>Safwan, Irak</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2444,6 +2607,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2462,6 +2626,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2480,6 +2645,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2498,6 +2664,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2516,6 +2683,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2534,6 +2702,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2552,6 +2721,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2570,6 +2740,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2588,6 +2759,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2602,6 +2774,7 @@
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2620,6 +2793,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2638,6 +2812,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2656,6 +2831,7 @@
           <t>Karamanlı, Dulkadiroğlu, Kahramanmaraş, Turquía</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2674,6 +2850,7 @@
           <t>القريا, Siria</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2692,6 +2869,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2710,6 +2888,7 @@
           <t>Ceel Buur, Somalia</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2728,6 +2907,7 @@
           <t>Siria</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2746,6 +2926,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2764,6 +2945,7 @@
           <t>Upleta Taluka, Rajkot District, Guyarat, India</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2782,6 +2964,7 @@
           <t>Abuda, Kasala, Sudán</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2800,6 +2983,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2818,6 +3002,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2836,6 +3021,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2854,6 +3040,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2872,6 +3059,7 @@
           <t>Altınbaşak, Üzümlü, Erzincan, Doğu Anadolu Bölgesi, Turquía</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2890,6 +3078,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2908,6 +3097,7 @@
           <t>С-191541, Павлючки, Садівська, Сумський, Ucrania</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2926,6 +3116,7 @@
           <t>Irak</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2944,6 +3135,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2962,6 +3154,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2980,6 +3173,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2998,6 +3192,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3016,6 +3211,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3034,6 +3230,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3052,6 +3249,7 @@
           <t>Асташкавіцкі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3070,6 +3268,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3088,6 +3287,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3106,6 +3306,7 @@
           <t>Provincia Oriental, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3124,6 +3325,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3142,6 +3344,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3160,6 +3363,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3178,6 +3382,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3196,6 +3401,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3214,6 +3420,7 @@
           <t>Eritrea</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3232,6 +3439,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3250,6 +3458,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3268,6 +3477,7 @@
           <t>ﺑَﺮَﺍﻭَة, Shabeellaha Hoose, Somalia</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3286,6 +3496,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3304,6 +3515,7 @@
           <t>طريق الساحل, Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3322,6 +3534,7 @@
           <t>Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3340,6 +3553,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3358,6 +3572,7 @@
           <t>Соборна, Ucrania</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3376,6 +3591,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3394,6 +3610,7 @@
           <t>Kaden, Karamustafa, Gümüşhane, Región del Mar Negro, Turquía</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3412,6 +3629,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3430,6 +3648,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3448,6 +3667,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3466,6 +3686,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3484,6 +3705,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3502,6 +3724,7 @@
           <t>Асташкавіцкі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3520,6 +3743,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3538,6 +3762,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3556,6 +3781,7 @@
           <t>Rusia</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3574,6 +3800,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3592,6 +3819,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3610,6 +3838,7 @@
           <t>Antioquía, Turquía</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3628,6 +3857,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3646,6 +3876,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3664,6 +3895,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3682,6 +3914,7 @@
           <t>Irak</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3700,6 +3933,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3718,6 +3952,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3736,6 +3971,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3750,6 +3986,7 @@
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3768,6 +4005,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3786,6 +4024,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3804,6 +4043,7 @@
           <t>Sind, Pakistán</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3822,6 +4062,7 @@
           <t>Hiiraan, Hirshabeelle, Somalia</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3840,6 +4081,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3858,6 +4100,7 @@
           <t>Italia</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3876,6 +4119,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3894,6 +4138,7 @@
           <t>Provincia de la Frontera del Norte, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3908,6 +4153,7 @@
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3926,6 +4172,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3944,6 +4191,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3962,6 +4210,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3980,6 +4229,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3998,6 +4248,7 @@
           <t>Chipre del Norte, Chipre</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4016,6 +4267,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4034,6 +4286,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4048,6 +4301,7 @@
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4066,6 +4320,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4084,6 +4339,7 @@
           <t>Belfodiyo, Asosa, Benishangul-Gumaz</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4102,6 +4358,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4120,6 +4377,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4138,6 +4396,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4156,6 +4415,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4174,6 +4434,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4192,6 +4453,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4210,6 +4472,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4228,6 +4491,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4246,6 +4510,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4264,6 +4529,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4282,6 +4548,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4300,6 +4567,7 @@
           <t>Turquía</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4314,6 +4582,7 @@
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4328,6 +4597,7 @@
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4346,6 +4616,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4364,6 +4635,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4382,6 +4654,7 @@
           <t>Abu Dabi, Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4400,6 +4673,7 @@
           <t>Kızılhasan, Sper, Erzurum, Doğu Anadolu Bölgesi, Turquía</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4418,6 +4692,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4436,6 +4711,7 @@
           <t>Provincia Oriental, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4454,6 +4730,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4472,6 +4749,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4490,6 +4768,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4508,6 +4787,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4526,6 +4806,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4544,6 +4825,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4562,6 +4844,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4580,6 +4863,7 @@
           <t>Dollo, Somali, Etiopía</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4598,6 +4882,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4616,6 +4901,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4634,6 +4920,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4652,6 +4939,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4670,6 +4958,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4688,6 +4977,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4706,6 +4996,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4724,6 +5015,7 @@
           <t>Western Tigray</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4738,6 +5030,7 @@
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4756,6 +5049,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4774,6 +5068,7 @@
           <t>Dubái, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4792,6 +5087,7 @@
           <t>Chipre</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4810,6 +5106,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4828,6 +5125,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4846,6 +5144,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4864,6 +5163,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4882,6 +5182,7 @@
           <t>اورماڑہ</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4900,6 +5201,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4918,6 +5220,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4936,6 +5239,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4954,6 +5258,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4972,6 +5277,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4990,6 +5296,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -5008,6 +5315,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5026,6 +5334,7 @@
           <t>Afder, Somali, Etiopía</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5044,6 +5353,7 @@
           <t>Близнец, Твърдица, Сливен, Bulgaria</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5062,6 +5372,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -5080,6 +5391,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -5098,6 +5410,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5116,6 +5429,7 @@
           <t>محافظة السليمي, Provincia de Hail, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5134,6 +5448,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5152,6 +5467,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5170,6 +5486,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5188,6 +5505,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5206,6 +5524,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5224,6 +5543,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5242,6 +5562,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5260,6 +5581,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5278,6 +5600,7 @@
           <t>Асташкавіцкі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5296,6 +5619,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5314,6 +5638,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5332,6 +5657,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5350,6 +5676,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5368,6 +5695,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5386,6 +5714,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5404,6 +5733,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5422,6 +5752,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5440,6 +5771,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5458,6 +5790,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5476,6 +5809,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5494,6 +5828,7 @@
           <t>Provincia de La Meca, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5512,6 +5847,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5530,6 +5866,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5548,6 +5885,7 @@
           <t>Снегиревское, Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5566,6 +5904,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5584,6 +5923,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5598,6 +5938,7 @@
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5616,6 +5957,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5634,6 +5976,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5652,6 +5995,7 @@
           <t>Никонці, Садівська, Сумський, Ucrania</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5670,6 +6014,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5688,6 +6033,7 @@
           <t>Ферзиковский, Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5706,6 +6052,7 @@
           <t>Provincia de La Meca, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5724,6 +6071,7 @@
           <t>Chamwino, Tanzania</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5742,6 +6090,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5760,6 +6109,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5778,6 +6128,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5796,6 +6147,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5814,6 +6166,7 @@
           <t>Jimma, Oromia</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5832,6 +6185,7 @@
           <t>Bari, Puntland, Somalia</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5850,6 +6204,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5868,6 +6223,7 @@
           <t>Bari, Puntland, Somalia</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5886,6 +6242,7 @@
           <t>Bağlıçay, Gürün, Turquía</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5904,6 +6261,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5922,6 +6280,7 @@
           <t>Tanzania</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5940,6 +6299,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5958,6 +6318,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5976,6 +6337,7 @@
           <t>Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5994,6 +6356,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -6012,6 +6375,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -6030,6 +6394,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -6048,6 +6413,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -6066,6 +6432,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -6084,6 +6451,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -6102,6 +6470,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -6120,6 +6489,7 @@
           <t>Kuchuru, Nacionalidades, Pueblos del Sur</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -6138,6 +6508,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -6156,6 +6527,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -6174,6 +6546,7 @@
           <t>Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6192,6 +6565,7 @@
           <t>Мистецтв, Ucrania</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6210,6 +6584,7 @@
           <t>سینگان, بخش مرکزی</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -6228,6 +6603,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -6246,6 +6622,7 @@
           <t>Ічнянська, Прилуцький, Ucrania</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -6264,6 +6641,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6282,6 +6660,7 @@
           <t>Provincia de Tabuk, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -6300,6 +6679,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -6314,6 +6694,7 @@
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -6332,6 +6713,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -6350,6 +6732,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -6368,6 +6751,7 @@
           <t>محافظة العلا, Provincia de Medina, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -6382,6 +6766,7 @@
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -6400,6 +6785,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -6418,6 +6804,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -6436,6 +6823,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -6450,6 +6838,7 @@
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -6468,6 +6857,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -6486,6 +6876,7 @@
           <t>Северо-Западный, Rusia</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -6504,6 +6895,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -6522,6 +6914,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -6540,6 +6933,7 @@
           <t>Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -6558,6 +6952,7 @@
           <t>Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -6576,6 +6971,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -6594,6 +6990,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -6612,6 +7009,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -6630,6 +7028,7 @@
           <t>Gurayat, Provincia de Yauf, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -6648,6 +7047,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -6666,6 +7066,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -6684,6 +7085,7 @@
           <t>محافظة سكاكا, Provincia de Yauf, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -6702,6 +7104,7 @@
           <t>Kapoeta Este, Ecuatoria Oriental, Sudán del Sur</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6720,6 +7123,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -6738,6 +7142,7 @@
           <t>Цэнтральная, Мольча, Чыркавіцкі сельскі Савет, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6756,6 +7161,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -6774,6 +7180,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6792,6 +7199,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6810,6 +7218,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -6828,6 +7237,7 @@
           <t>Çınar, Turquía</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6846,6 +7256,7 @@
           <t>Provincia de Hail, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -6864,6 +7275,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -6882,6 +7294,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -6900,6 +7313,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -6918,6 +7332,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -6936,6 +7351,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -6954,6 +7370,7 @@
           <t>لقيط, Yemen</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -6972,6 +7389,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -6990,6 +7408,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -7008,6 +7427,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -7026,6 +7446,7 @@
           <t>Здолбунів, Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -7044,6 +7465,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -7058,6 +7480,7 @@
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -7076,6 +7499,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -7094,6 +7518,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -7112,6 +7537,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -7130,6 +7556,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -7148,6 +7575,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -7166,6 +7594,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -7180,6 +7609,7 @@
         </is>
       </c>
       <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -7198,6 +7628,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -7216,6 +7647,7 @@
           <t>Асташкавіцкі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -7234,6 +7666,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -7252,6 +7685,7 @@
           <t>Distrito, Nenetsia, Северо-Западный, Rusia</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -7270,6 +7704,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -7288,6 +7723,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -7306,6 +7742,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -7324,6 +7761,7 @@
           <t>Nugaal, Puntland, Somalia</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -7342,6 +7780,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -7360,6 +7799,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -7378,6 +7818,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -7396,6 +7837,7 @@
           <t>Asosa</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -7414,6 +7856,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -7432,6 +7875,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -7450,6 +7894,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -7468,6 +7913,7 @@
           <t>Afar</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -7486,6 +7932,7 @@
           <t>Мірашнічэнкі, Печышчы, Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -7504,6 +7951,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -7522,6 +7970,7 @@
           <t>Shabelle, Somali, Etiopía</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -7536,6 +7985,7 @@
         </is>
       </c>
       <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -7554,6 +8004,7 @@
           <t>Грозаўскі, Капыльскі, Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -7572,6 +8023,7 @@
           <t>Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -7590,6 +8042,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -7608,6 +8061,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -7626,6 +8080,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -7644,6 +8099,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -7662,6 +8118,7 @@
           <t>Irak</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -7680,6 +8137,7 @@
           <t>Sind, Pakistán</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -7698,6 +8156,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -7716,6 +8175,7 @@
           <t>Сасноваборскі, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -7734,6 +8194,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -7752,6 +8213,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -7770,6 +8232,7 @@
           <t>Соборна, Ucrania</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7788,6 +8251,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7806,6 +8270,7 @@
           <t>Krai de Perm, Rusia</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7820,6 +8285,7 @@
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7838,6 +8304,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7856,6 +8323,7 @@
           <t>Новоселовка, Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7874,6 +8342,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -7892,6 +8361,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7910,6 +8380,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -7928,6 +8399,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -7946,6 +8418,7 @@
           <t>Provincia de Yauf, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -7964,6 +8437,7 @@
           <t>Abu Dabi, Emiratos Árabes Unidos</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -7982,6 +8456,7 @@
           <t>Chipre</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -8000,6 +8475,7 @@
           <t>Provincia de Ogooué-Lolo</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -8018,6 +8494,7 @@
           <t>Н-25, Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -8036,6 +8513,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -8054,6 +8532,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -8072,6 +8551,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -8090,6 +8570,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -8108,6 +8589,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -8126,6 +8608,7 @@
           <t>Орестів, Ucrania</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -8144,6 +8627,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -8162,6 +8646,7 @@
           <t>Jubaland, Somalia</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -8180,6 +8665,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -8198,6 +8684,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -8216,6 +8703,7 @@
           <t>Sind</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -8234,6 +8722,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -8252,6 +8741,7 @@
           <t>Грозаўскі, Капыльскі, Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -8270,6 +8760,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -8288,6 +8779,7 @@
           <t>محافظة العلا, Provincia de Medina, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -8306,6 +8798,7 @@
           <t>Грозаўскі, Капыльскі, Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -8324,6 +8817,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -8342,6 +8836,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -8360,6 +8855,7 @@
           <t>Dhofar, Omán</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -8378,6 +8874,7 @@
           <t>Kasala, Sudán</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -8396,6 +8893,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -8414,6 +8912,7 @@
           <t>Diala, Irak</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -8432,6 +8931,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -8450,6 +8950,7 @@
           <t>Nugaal, Puntland, Somalia</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -8468,6 +8969,7 @@
           <t>Близнец, Твърдица, Сливен, Bulgaria</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -8486,6 +8988,7 @@
           <t>Савет, Raión de Kalinkavichy, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -8504,6 +9007,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -8522,6 +9026,7 @@
           <t>Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -8540,6 +9045,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -8558,6 +9064,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -8576,6 +9083,7 @@
           <t>Акцябрскі сельскі Савет, Крупскі, Provincia de Minsk, Belarús</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -8594,6 +9102,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -8612,6 +9121,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -8630,6 +9140,7 @@
           <t>Sanaag, Somalia</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -8648,6 +9159,7 @@
           <t>Здолбунів, Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -8666,6 +9178,7 @@
           <t>محافظة سكاكا, Provincia de Yauf, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -8684,6 +9197,7 @@
           <t>Kuchuru, Nacionalidades, Pueblos del Sur</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -8702,6 +9216,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -8720,6 +9235,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -8738,6 +9254,7 @@
           <t>Wajir, South, Condado de Wajir, Kenia</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -8756,6 +9273,7 @@
           <t>Здолбунівська, Ucrania</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -8774,6 +9292,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -8792,6 +9311,7 @@
           <t>Siria</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -8810,6 +9330,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -8828,6 +9349,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -8846,6 +9368,7 @@
           <t>Provincia de Yauf, Arabia Saudita</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -8864,6 +9387,7 @@
           <t>Omán</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -8882,6 +9406,7 @@
           <t>Мольча, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -8900,6 +9425,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -8918,6 +9444,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -8932,6 +9459,7 @@
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -8950,6 +9478,7 @@
           <t>Estonia</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -8968,6 +9497,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -8986,6 +9516,7 @@
           <t>Koigi, Estonia</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -9004,6 +9535,7 @@
           <t>Chipre del Norte, Chipre</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -9022,6 +9554,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -9040,6 +9573,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -9058,6 +9592,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -9076,6 +9611,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -9094,6 +9630,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -9112,6 +9649,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -9130,6 +9668,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -9148,6 +9687,7 @@
           <t>Yemen</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -9166,6 +9706,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -9184,6 +9725,7 @@
           <t>Siria</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -9202,6 +9744,7 @@
           <t>Чыркавіцкі сельскі Савет, Provincia de Gómel, Belarús</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -9220,6 +9763,7 @@
           <t>Великоомелянська, Ucrania</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -9238,6 +9782,7 @@
           <t>Шпанів, Шпанівська, Ucrania</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -9256,6 +9801,7 @@
           <t>Distrito federal Central, Rusia</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -9274,6 +9820,7 @@
           <t>Somalia</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -9292,6 +9839,7 @@
           <t>Ucrania</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -9310,6 +9858,7 @@
           <t>Sebastopol, Южный, Rusia</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -9326,6 +9875,73 @@
       <c r="D498" t="inlineStr">
         <is>
           <t>Ucrania</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
